--- a/tests/xl/many-sheets.xlsx
+++ b/tests/xl/many-sheets.xlsx
@@ -125,10 +125,10 @@
     <t>name</t>
   </si>
   <si>
-    <t>#Title=TestArray - HeaderDepth=3 - IsTransposed=False - DateTime=2024-09-30 08:42:21.915970 - SchemaUrl=None</t>
-  </si>
-  <si>
-    <t>#Title=TestArray1 - HeaderDepth=3 - IsTransposed=False - DateTime=2024-09-30 08:42:21.919467 - SchemaUrl=None</t>
+    <t>#Title=TestArray - HeaderDepth=3 - IsTransposed=False - DateTime=2024-10-04 13:00:12.275753 - SchemaUrl=None</t>
+  </si>
+  <si>
+    <t>#Title=TestArray1 - HeaderDepth=3 - IsTransposed=False - DateTime=2024-10-04 13:00:12.279201 - SchemaUrl=None</t>
   </si>
 </sst>
 </file>
@@ -866,16 +866,16 @@
   </sheetData>
   <conditionalFormatting sqref="B2:N2">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>"datetime"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"unicode"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
-      <formula>"numeric"</formula>
-    </cfRule>
     <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -1117,10 +1117,10 @@
   </sheetData>
   <conditionalFormatting sqref="B2:H2">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">

--- a/tests/xl/many-sheets.xlsx
+++ b/tests/xl/many-sheets.xlsx
@@ -125,10 +125,10 @@
     <t>name</t>
   </si>
   <si>
-    <t>#Title=TestArray - HeaderDepth=3 - IsTransposed=False - DateTime=2024-10-04 13:00:12.275753 - SchemaUrl=None</t>
-  </si>
-  <si>
-    <t>#Title=TestArray1 - HeaderDepth=3 - IsTransposed=False - DateTime=2024-10-04 13:00:12.279201 - SchemaUrl=None</t>
+    <t>#Title=TestArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-09-18 09:28:30.361597 - DatamodelUrl=None</t>
+  </si>
+  <si>
+    <t>#Title=TestArray1 - HeaderDepth=3 - IsTransposed=False - DateTime=2025-09-18 09:28:30.362698 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
